--- a/python/two/night2 Error t1=6 t2=3 δ=0.5.xlsx
+++ b/python/two/night2 Error t1=6 t2=3 δ=0.5.xlsx
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000172</v>
+        <v>-4.36e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>5.95</v>
+        <v>6.01</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.914</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0147</v>
+        <v>-0.00371</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2.89</v>
       </c>
       <c r="F3" t="n">
-        <v>-66.7</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.02e-05</v>
+        <v>-1.53e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000102</v>
+        <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0032</v>
+        <v>0.000803</v>
       </c>
       <c r="E5" t="n">
-        <v>0.587</v>
+        <v>0.499</v>
       </c>
       <c r="F5" t="n">
-        <v>17.4</v>
+        <v>-0.184</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.560000000000001e-07</v>
+        <v>-1.67e-07</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00018</v>
+        <v>-8.1e-05</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.41e-05</v>
+        <v>1.56e-06</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>128000</v>
+        <v>3500</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.24e-07</v>
+        <v>7.990000000000001e-09</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>655</v>
+        <v>18</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>

--- a/python/two/night2 Error t1=6 t2=3 δ=0.5.xlsx
+++ b/python/two/night2 Error t1=6 t2=3 δ=0.5.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.36e-05</v>
+        <v>0.183</v>
       </c>
       <c r="E2" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="F2" t="n">
-        <v>0.18</v>
+        <v>-0.324</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00371</v>
+        <v>-10.2</v>
       </c>
       <c r="E3" t="n">
-        <v>2.89</v>
+        <v>3.28</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.66</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.53e-05</v>
+        <v>-0.00279</v>
       </c>
       <c r="E4" t="n">
         <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.196</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000803</v>
+        <v>2.61</v>
       </c>
       <c r="E5" t="n">
-        <v>0.499</v>
+        <v>0.491</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.184</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.67e-07</v>
+        <v>-4.97e-05</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-8.1e-05</v>
+        <v>-2.58e-05</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.56e-06</v>
+        <v>7000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3500</v>
+        <v>3640</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.990000000000001e-09</v>
+        <v>35.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
